--- a/Persistence&Repeatability.xlsx
+++ b/Persistence&Repeatability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b22c8efebb838533/Documents/MSDS/599 - Survival Analysis/Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacjohnson/Documents/Scanner Output/School/Willamette/Survival Analysis/Week 8 Class Project 2/Project 2/chickadees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8994F83D-F6EA-4FE6-AC69-90F1E3566CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948F4E78-7A8A-8B46-859B-178C668B8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bird Dominance" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -1038,7 +1038,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1047,23 +1047,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1077,18 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1157,12 +1145,24 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="145">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1176,6 +1176,9 @@
     </dxf>
     <dxf>
       <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1204,6 +1207,19 @@
     </dxf>
     <dxf>
       <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1216,6 +1232,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1241,25 +1263,12 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1282,651 +1291,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1947,7 +1312,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="tetragami 9" refreshedDate="44987.772242592589" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tetragami 9" refreshedDate="44987.772242592589" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q1048576" sheet="Persistence&amp;Repeatability"/>
   </cacheSource>
@@ -3472,208 +2837,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="72">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="56">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="60">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -3830,7 +2994,7 @@
     <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="81">
+    <format dxfId="19">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3839,10 +3003,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="18">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="17">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3851,7 +3015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3861,7 +3025,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="15">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3870,7 +3034,208 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="14">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="72">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="24">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3887,7 +3252,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N3:V9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -4060,7 +3425,7 @@
     <dataField name="% Distribution" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="5" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="28">
+    <format dxfId="6">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4069,7 +3434,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4078,10 +3443,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="4">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="3">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4090,7 +3455,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="2">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4099,7 +3464,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4109,7 +3474,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4133,7 +3498,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:J8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -4295,7 +3660,7 @@
     <dataField name="% Distribution" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="5" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="67">
+    <format dxfId="13">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4304,7 +3669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="12">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4313,10 +3678,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="11">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="10">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4325,7 +3690,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="9">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4334,7 +3699,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4344,7 +3709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4663,102 +4028,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="3" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="2:15" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>0.44196428562500001</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>0.27182539675</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>0.33333333300000001</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>0.38125763115384614</v>
       </c>
       <c r="G7"/>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>0.36309523799999993</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="31">
         <v>0.39682539671428574</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="31">
         <v>0.38125763115384614</v>
       </c>
       <c r="L7"/>
@@ -4766,245 +4126,245 @@
       <c r="N7"/>
       <c r="O7"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0.81456043961538449</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>0.57804232811111111</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>0.5625</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>0.70486111116666661</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>0.73710317466666664</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <v>0.67261904766666669</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>0.70486111116666661</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="32">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31">
         <v>0.61111111100000004</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>0.41666666699999999</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>0.83333333300000001</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="31">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>0.66493055554166669</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>0.4748677249333334</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>0.57291666650000006</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>0.59007013658139529</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="31">
         <v>0.61243386244444453</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="31">
         <v>0.57396825395999995</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="31">
         <v>0.59007013658139529</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="42" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C15" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="I15" s="42" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="I15" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="40" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="41">
         <v>0.44196428562500001</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="41">
         <v>0.27182539675</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="41">
         <v>0.33333333300000001</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="41">
         <v>0.38125763115384614</v>
       </c>
       <c r="H17" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="41">
         <v>0.36309523799999993</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="41">
         <v>0.39682539671428574</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="41">
         <v>0.38125763115384614</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="41">
         <v>0.81456043961538449</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="41">
         <v>0.57804232811111111</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="41">
         <v>0.5625</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="41">
         <v>0.70486111116666661</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="41">
         <v>0.73710317466666664</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="41">
         <v>0.67261904766666669</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="41">
         <v>0.70486111116666661</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="41">
         <v>0.61111111100000004</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="41">
         <v>0.41666666699999999</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="41">
         <v>0.83333333300000001</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="41">
         <v>0.58333333333333337</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47">
+      <c r="I19" s="41"/>
+      <c r="J19" s="41">
         <v>0.58333333333333337</v>
       </c>
-      <c r="K19" s="47">
+      <c r="K19" s="41">
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="42">
         <v>0.66493055554166669</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="42">
         <v>0.4748677249333334</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="42">
         <v>0.57291666650000006</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="42">
         <v>0.59007013658139529</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="42">
         <v>0.61243386244444453</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="42">
         <v>0.57396825395999995</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="42">
         <v>0.59007013658139529</v>
       </c>
     </row>
@@ -5015,28 +4375,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:V17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>105</v>
       </c>
@@ -5044,7 +4404,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
@@ -5071,58 +4431,58 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="30" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="2:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="31" t="s">
+      <c r="Q5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -5135,19 +4495,19 @@
       <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>0.31428571428571428</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>0.15714285714285714</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="I6" s="8">
         <v>36</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>0.51428571428571423</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -5162,48 +4522,48 @@
       <c r="Q6" s="8">
         <v>2</v>
       </c>
-      <c r="R6" s="19">
+      <c r="R6" s="18">
         <v>0.18571428571428572</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="18">
         <v>0.17142857142857143</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="19">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="14">
         <v>27</v>
       </c>
-      <c r="V6" s="20">
+      <c r="V6" s="19">
         <v>0.38571428571428573</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="9">
         <v>13</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7">
         <v>17</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>0.18571428571428572</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>0.24285714285714285</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>34</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="27">
         <v>0.48571428571428571</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -5212,54 +4572,54 @@
       <c r="O7" s="9">
         <v>18</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7">
         <v>12</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>3</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <v>0.25714285714285712</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="21">
         <v>0.17142857142857143</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="22">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="15">
         <v>33</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="22">
         <v>0.47142857142857142</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>35</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>28</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>7</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>0.5</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>0.4</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>0.1</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>70</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="28">
         <v>1</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -5268,140 +4628,140 @@
       <c r="O8" s="9">
         <v>4</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8">
         <v>4</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>2</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="21">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="21">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="22">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="15">
         <v>10</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="22">
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>35</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <v>28</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>7</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9" s="24">
         <v>0.5</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9" s="24">
         <v>0.4</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="25">
         <v>0.1</v>
       </c>
-      <c r="U9" s="17">
+      <c r="U9" s="16">
         <v>70</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="C12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42" t="s">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="43" t="s">
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="43" t="s">
+      <c r="V12" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="41" t="s">
+      <c r="E13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="N13" s="40" t="s">
+      <c r="H13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="N13" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="41" t="s">
+      <c r="P13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="41" t="s">
+      <c r="Q13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="41" t="s">
+      <c r="S13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -5414,19 +4774,19 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="32">
         <v>0.31428571428571428</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="32">
         <v>0.15714285714285714</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="32">
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="I14">
         <v>36</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="32">
         <v>0.51428571428571423</v>
       </c>
       <c r="N14" t="s">
@@ -5441,23 +4801,23 @@
       <c r="Q14">
         <v>2</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="32">
         <v>0.18571428571428572</v>
       </c>
-      <c r="S14" s="38">
+      <c r="S14" s="32">
         <v>0.17142857142857143</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="32">
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="U14">
         <v>27</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="32">
         <v>0.38571428571428573</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -5470,19 +4830,19 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="32">
         <v>0.18571428571428572</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="32">
         <v>0.24285714285714285</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="32">
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="I15">
         <v>34</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="32">
         <v>0.48571428571428571</v>
       </c>
       <c r="N15" t="s">
@@ -5497,48 +4857,48 @@
       <c r="Q15">
         <v>3</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="32">
         <v>0.25714285714285712</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="32">
         <v>0.17142857142857143</v>
       </c>
-      <c r="T15" s="38">
+      <c r="T15" s="32">
         <v>4.2857142857142858E-2</v>
       </c>
       <c r="U15">
         <v>33</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="32">
         <v>0.47142857142857142</v>
       </c>
     </row>
-    <row r="16" spans="2:22" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+    <row r="16" spans="2:22" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="39">
         <v>35</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="39">
         <v>28</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="39">
         <v>7</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="40">
         <v>0.5</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="40">
         <v>0.4</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="40">
         <v>0.1</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="39">
         <v>70</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="40">
         <v>1</v>
       </c>
       <c r="K16"/>
@@ -5556,48 +4916,48 @@
       <c r="Q16">
         <v>2</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="32">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="32">
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="T16" s="38">
+      <c r="T16" s="32">
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="U16">
         <v>10</v>
       </c>
-      <c r="V16" s="38">
+      <c r="V16" s="32">
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N17" s="44" t="s">
+    <row r="17" spans="14:22" x14ac:dyDescent="0.2">
+      <c r="N17" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="O17" s="45">
+      <c r="O17" s="39">
         <v>35</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="39">
         <v>28</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="39">
         <v>7</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="40">
         <v>0.5</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="40">
         <v>0.4</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="40">
         <v>0.1</v>
       </c>
-      <c r="U17" s="45">
+      <c r="U17" s="39">
         <v>70</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="40">
         <v>1</v>
       </c>
     </row>
@@ -5608,24 +4968,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5678,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20161017</v>
       </c>
@@ -5731,7 +5091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20161017</v>
       </c>
@@ -5784,7 +5144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20161017</v>
       </c>
@@ -5837,7 +5197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20161024</v>
       </c>
@@ -5890,7 +5250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20161017</v>
       </c>
@@ -5943,7 +5303,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20161017</v>
       </c>
@@ -5996,7 +5356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20161017</v>
       </c>
@@ -6049,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20161017</v>
       </c>
@@ -6102,7 +5462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20161003</v>
       </c>
@@ -6155,7 +5515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20161003</v>
       </c>
@@ -6208,7 +5568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20161003</v>
       </c>
@@ -6261,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20161003</v>
       </c>
@@ -6314,7 +5674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20161003</v>
       </c>
@@ -6367,7 +5727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20161003</v>
       </c>
@@ -6420,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20161003</v>
       </c>
@@ -6473,7 +5833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20161003</v>
       </c>
@@ -6526,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20161003</v>
       </c>
@@ -6579,7 +5939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20161003</v>
       </c>
@@ -6632,7 +5992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20161017</v>
       </c>
@@ -6685,7 +6045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20161017</v>
       </c>
@@ -6738,7 +6098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20161017</v>
       </c>
@@ -6791,7 +6151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20161017</v>
       </c>
@@ -6844,7 +6204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20161017</v>
       </c>
@@ -6897,7 +6257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20161024</v>
       </c>
@@ -6950,7 +6310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20161024</v>
       </c>
@@ -7003,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20161024</v>
       </c>
@@ -7056,7 +6416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20161024</v>
       </c>
@@ -7109,7 +6469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20161024</v>
       </c>
@@ -7162,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20161024</v>
       </c>
@@ -7215,7 +6575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20161024</v>
       </c>
@@ -7268,7 +6628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20161024</v>
       </c>
@@ -7321,7 +6681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20161024</v>
       </c>
@@ -7374,7 +6734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20161024</v>
       </c>
@@ -7427,7 +6787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20161024</v>
       </c>
@@ -7480,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20161107</v>
       </c>
@@ -7533,7 +6893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20161107</v>
       </c>
@@ -7586,7 +6946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>20161107</v>
       </c>
@@ -7639,7 +6999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20161107</v>
       </c>
@@ -7692,7 +7052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20161107</v>
       </c>
@@ -7745,7 +7105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20161107</v>
       </c>
@@ -7798,7 +7158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20161107</v>
       </c>
@@ -7851,7 +7211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20161107</v>
       </c>
@@ -7904,7 +7264,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>20161107</v>
       </c>
@@ -7957,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20161107</v>
       </c>
@@ -8010,7 +7370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20161107</v>
       </c>
@@ -8063,7 +7423,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>20161107</v>
       </c>
@@ -8116,7 +7476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20161114</v>
       </c>
@@ -8169,7 +7529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20161114</v>
       </c>
@@ -8222,7 +7582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20161114</v>
       </c>
@@ -8275,7 +7635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20161114</v>
       </c>
@@ -8328,7 +7688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20161114</v>
       </c>
@@ -8381,7 +7741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>20161114</v>
       </c>
@@ -8434,7 +7794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>20161114</v>
       </c>
@@ -8487,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>20161114</v>
       </c>
@@ -8540,7 +7900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20161114</v>
       </c>
@@ -8593,7 +7953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20161114</v>
       </c>
@@ -8646,7 +8006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20161114</v>
       </c>
@@ -8699,7 +8059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>20161114</v>
       </c>
@@ -8752,7 +8112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20161128</v>
       </c>
@@ -8805,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20161128</v>
       </c>
@@ -8858,7 +8218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>20161128</v>
       </c>
@@ -8911,7 +8271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>20161128</v>
       </c>
@@ -8964,7 +8324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>20161128</v>
       </c>
@@ -9017,7 +8377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>20161128</v>
       </c>
@@ -9070,7 +8430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>20161128</v>
       </c>
@@ -9123,7 +8483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20161128</v>
       </c>
@@ -9176,7 +8536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>20161128</v>
       </c>
@@ -9229,7 +8589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>20161128</v>
       </c>
@@ -9282,7 +8642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20161128</v>
       </c>
@@ -9335,7 +8695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>20161128</v>
       </c>
@@ -9389,7 +8749,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q71">
+  <autoFilter ref="A1:Q71" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q71">
       <sortCondition ref="C1:C71"/>
     </sortState>

--- a/Persistence&Repeatability.xlsx
+++ b/Persistence&Repeatability.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacjohnson/Documents/Scanner Output/School/Willamette/Survival Analysis/Week 8 Class Project 2/Project 2/chickadees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948F4E78-7A8A-8B46-859B-178C668B8894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639116E-D7FF-2543-9DB3-9D0523E59543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bird Dominance" sheetId="3" r:id="rId1"/>
     <sheet name="Bird Counts" sheetId="2" r:id="rId2"/>
-    <sheet name="Persistence&amp;Repeatability" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Persistence&amp;Repeatability" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Persistence&amp;Repeatability'!$A$1:$Q$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Persistence&amp;Repeatability'!$A$1:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="116">
   <si>
     <t>capturedate</t>
   </si>
@@ -1145,7 +1146,51 @@
     <cellStyle name="Total" xfId="19" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="16" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="32">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -1260,9 +1305,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -1283,6 +1325,9 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2837,6 +2882,207 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="72">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="25">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
@@ -2994,7 +3240,7 @@
     <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="19">
+    <format dxfId="31">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3003,10 +3249,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="30">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="29">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3015,7 +3261,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3025,7 +3271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="27">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3034,208 +3280,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="72">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="24">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3425,7 +3470,7 @@
     <dataField name="% Distribution" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="5" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="6">
+    <format dxfId="13">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3434,7 +3479,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="12">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3443,10 +3488,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="11">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3455,7 +3500,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3464,7 +3509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3474,7 +3519,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3660,7 +3705,7 @@
     <dataField name="% Distribution" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="5" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="13">
+    <format dxfId="20">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3669,7 +3714,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="19">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3678,10 +3723,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="17">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3690,7 +3735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="16">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3699,7 +3744,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3709,7 +3754,253 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A1A6DAB-86A0-854C-9FDD-F981041F0AF9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:J9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="72">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="3"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Bird Count" fld="2" subtotal="count" baseField="5" baseItem="0"/>
+    <dataField name="% Distribution" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="5" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4378,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:V17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4968,10 +5259,357 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B30BB64-69D6-6149-9ACA-C4FBD0A3E66E}">
+  <dimension ref="A3:K17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="H6" s="19">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I6" s="14">
+        <v>27</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.38571428571428573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="H7" s="22">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="I7" s="15">
+        <v>33</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.47142857142857142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G8" s="21">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="H8" s="22">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I8" s="15">
+        <v>10</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="11">
+        <v>35</v>
+      </c>
+      <c r="D9" s="12">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13">
+        <v>7</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>70</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="H14" s="32">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I14">
+        <v>27</v>
+      </c>
+      <c r="J14" s="32">
+        <v>0.38571428571428573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="H15" s="32">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0.47142857142857142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="32">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G16" s="32">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="H16" s="32">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="39">
+        <v>35</v>
+      </c>
+      <c r="D17" s="39">
+        <v>28</v>
+      </c>
+      <c r="E17" s="39">
+        <v>7</v>
+      </c>
+      <c r="F17" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="39">
+        <v>70</v>
+      </c>
+      <c r="J17" s="40">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>

--- a/Persistence&Repeatability.xlsx
+++ b/Persistence&Repeatability.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaacjohnson/Documents/Scanner Output/School/Willamette/Survival Analysis/Week 8 Class Project 2/Project 2/chickadees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E639116E-D7FF-2543-9DB3-9D0523E59543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E06F37B-409E-A44E-8896-FE6BF70E0CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bird Dominance" sheetId="3" r:id="rId1"/>
     <sheet name="Bird Counts" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Persistence&amp;Repeatability" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Persistence&amp;Repeatability" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Persistence&amp;Repeatability'!$A$1:$Q$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Persistence&amp;Repeatability'!$A$1:$Q$71</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="120">
   <si>
     <t>capturedate</t>
   </si>
@@ -377,6 +379,18 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Count of indiv</t>
+  </si>
+  <si>
+    <t>Total Count of indiv</t>
+  </si>
+  <si>
+    <t>Average of urbanscore</t>
+  </si>
+  <si>
+    <t>Total Average of urbanscore</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1053,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1099,6 +1113,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -1148,20 +1164,19 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <border>
@@ -1177,19 +1192,20 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1305,6 +1321,9 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -1325,9 +1344,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1509,7 +1525,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="72">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
   <r>
     <n v="20161017"/>
     <s v="BB"/>
@@ -2882,208 +2898,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="72">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="25">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="21">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B5:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -3240,6 +3055,217 @@
     <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="6">
+    <format dxfId="26">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="72">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of domscore" fld="8" subtotal="average" baseField="5" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="5">
     <format dxfId="31">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
@@ -3250,10 +3276,10 @@
       </pivotArea>
     </format>
     <format dxfId="30">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
     <format dxfId="29">
-      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="0">
+      <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
@@ -3262,16 +3288,6 @@
       </pivotArea>
     </format>
     <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3280,7 +3296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3297,7 +3313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N3:V9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -3543,7 +3559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:J8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -3778,7 +3794,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A1A6DAB-86A0-854C-9FDD-F981041F0AF9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A1A6DAB-86A0-854C-9FDD-F981041F0AF9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:J9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -3951,7 +3967,7 @@
     <dataField name="% Distribution" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="5" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3960,7 +3976,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3969,7 +3985,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0"/>
     </format>
     <format dxfId="3">
@@ -3981,7 +3997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="2">
       <pivotArea field="3" dataOnly="0" labelOnly="1" grandCol="1" outline="0" axis="axisCol" fieldPosition="1">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3990,7 +4006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4000,7 +4016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4021,6 +4037,207 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C02FA81-667D-CA48-A30C-B0C7E275D2CE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="72">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="4"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of urbanscore" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Count of indiv" fld="2" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADDDCDEA-DF6D-4046-8B81-3F7B22462F90}" name="Table1" displayName="Table1" ref="A1:Q21" totalsRowShown="0">
+  <autoFilter ref="A1:Q21" xr:uid="{ADDDCDEA-DF6D-4046-8B81-3F7B22462F90}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{82CDA2A1-648D-344E-850D-F90AB6FCA966}" name="capturedate"/>
+    <tableColumn id="2" xr3:uid="{E544DD49-5FA2-CD47-A66A-A7FAF688163C}" name="site"/>
+    <tableColumn id="3" xr3:uid="{4167BAAB-F7D8-2148-84CC-0716430821AF}" name="indiv"/>
+    <tableColumn id="4" xr3:uid="{26C2FD3A-202C-8447-91C8-7644ADD73778}" name="age"/>
+    <tableColumn id="5" xr3:uid="{C66EC1BE-A385-1F4D-8240-7729EDCE52AC}" name="sex"/>
+    <tableColumn id="6" xr3:uid="{1CF1538A-B041-5643-BC41-B16BFF0D1A8D}" name="habitat"/>
+    <tableColumn id="7" xr3:uid="{C11C805E-E56B-BA4D-89DD-CAEE8680A94A}" name="urbanscore"/>
+    <tableColumn id="8" xr3:uid="{24E4B1D6-C487-ED4A-BF2B-762DC5CAF06A}" name="explscore"/>
+    <tableColumn id="9" xr3:uid="{0B8B17C8-96B6-7A4C-83E8-A45F10E24770}" name="domscore"/>
+    <tableColumn id="10" xr3:uid="{32156871-9963-A444-8174-4C9859E74D1C}" name="lpsolve"/>
+    <tableColumn id="11" xr3:uid="{2481963C-C7A7-3446-A7FD-BDE4363E7159}" name="lplatency"/>
+    <tableColumn id="12" xr3:uid="{D60F8FB1-AEF2-3B44-B54F-14C754100F92}" name="lpstatus"/>
+    <tableColumn id="13" xr3:uid="{49B2387E-044A-0444-B178-982C6FAA4EC7}" name="lpcontacts"/>
+    <tableColumn id="14" xr3:uid="{B9818DD8-8EF6-3B42-9940-BC0DB4F4B090}" name="prsolve"/>
+    <tableColumn id="15" xr3:uid="{A0ABCB82-B107-DA49-A4D6-CDE91AD6D000}" name="prlatency"/>
+    <tableColumn id="16" xr3:uid="{AAA65BCC-8ED9-1546-81E7-77036411B688}" name="prstatus"/>
+    <tableColumn id="17" xr3:uid="{7AF224A8-ACAE-F24F-8195-556BB7FC737A}" name="prcontacts"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5606,11 +5823,1308 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51355BA0-DD76-594B-B3FB-B3F607F673BF}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20161128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H2">
+        <v>4.0538571599999997</v>
+      </c>
+      <c r="I2">
+        <v>0.875</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>74</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2">
+        <v>5808</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20161017</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>-1.6219283</v>
+      </c>
+      <c r="H3">
+        <v>0.84351553999999995</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
+        <v>186</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>7373</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20161017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>-1.6219283</v>
+      </c>
+      <c r="H4">
+        <v>-0.29969216999999998</v>
+      </c>
+      <c r="I4">
+        <v>0.78571428600000004</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>348</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4">
+        <v>341</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20161128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H5">
+        <v>-0.89203513999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>3659</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>693</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20161017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>-1.6219283</v>
+      </c>
+      <c r="H6">
+        <v>0.63028728999999994</v>
+      </c>
+      <c r="I6">
+        <v>0.928571429</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>5915</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20161017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>-1.6219283</v>
+      </c>
+      <c r="H7">
+        <v>2.5066287100000002</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>253</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20161128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H8">
+        <v>-0.56209863000000004</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>865</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8">
+        <v>8098</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20161128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H9">
+        <v>-1.4743250400000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>7637</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9">
+        <v>464</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20161128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H10">
+        <v>-1.99487635</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>483</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10">
+        <v>7945</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20161128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H11">
+        <v>-1.24362927</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20161128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.68176272000000004</v>
+      </c>
+      <c r="I12">
+        <v>0.75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>999</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20161128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>-1.8852815000000001</v>
+      </c>
+      <c r="H13">
+        <v>-1.67740888</v>
+      </c>
+      <c r="I13">
+        <v>0.625</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>1060</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20161107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>-1.9998735000000001</v>
+      </c>
+      <c r="H14">
+        <v>-1.6636065900000001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>134</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14">
+        <v>607</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20161107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>-1.9998735000000001</v>
+      </c>
+      <c r="H15">
+        <v>-0.18240875000000001</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>7578</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15">
+        <v>7272</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20161107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>-1.9998735000000001</v>
+      </c>
+      <c r="H16">
+        <v>-1.4324258000000001</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>254</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16">
+        <v>172</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20161107</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>-1.9998735000000001</v>
+      </c>
+      <c r="H17">
+        <v>-1.8636752299999999</v>
+      </c>
+      <c r="I17">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>7577</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17">
+        <v>107</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20161107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>-1.9998735000000001</v>
+      </c>
+      <c r="H18">
+        <v>-0.89086255999999997</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>7638</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18">
+        <v>7251</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20161107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>-1.9998735000000001</v>
+      </c>
+      <c r="H19">
+        <v>5.4512327699999998</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>247</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19">
+        <v>7251</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20161017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>-1.6219283</v>
+      </c>
+      <c r="H20">
+        <v>-1.51336074</v>
+      </c>
+      <c r="I20">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20">
+        <v>6741</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20">
+        <v>6075</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20161017</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>-1.6219283</v>
+      </c>
+      <c r="H21">
+        <v>-1.7220695500000001</v>
+      </c>
+      <c r="I21">
+        <v>0.571428571</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>74</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21">
+        <v>192</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228A5966-115F-A44A-94AE-3F282E1BC99B}">
+  <dimension ref="A3:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="43">
+        <v>-1.8294960500000004</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="D6" s="43">
+        <v>-1.8406531400000001</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44">
+        <v>0</v>
+      </c>
+      <c r="H6" s="43">
+        <v>-1.8356944333333334</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="43">
+        <v>1.4898970090909087</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="D7" s="43">
+        <v>1.2767578846153842</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1.9574238999999998</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1.5459105470588241</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="43">
+        <v>-0.4771507296296299</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="D8" s="43">
+        <v>-0.61258213030303033</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.47142857142857142</v>
+      </c>
+      <c r="F8" s="43">
+        <v>1.9574238999999998</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H8" s="43">
+        <v>-0.19320058571428547</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
